--- a/reference/Core6ResourcesTable20240707.xlsx
+++ b/reference/Core6ResourcesTable20240707.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA8ACA-CA97-F042-8B8E-C660ECCE0F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54567D0-C43C-E342-9BF8-66EAF3FCD04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">AllergyIntoleranceTable!$A$1:$I$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">BundlePCSTable!$A$1:$G$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">BundleTable!$A$1:$I$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">CompositionPCSTable!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">CompositionPCSTable!$A$1:$I$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Encounter!$A$1:$I$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="1124">
   <si>
     <t>要素Lv1</t>
   </si>
@@ -7982,6 +7982,38 @@
   </si>
   <si>
     <t>要素Lv4</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>文書クラス（カテゴリー）</t>
+  </si>
+  <si>
+    <t>固定値</t>
+    <rPh sb="0" eb="3">
+      <t>コテイチ</t>
+    </rPh>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>コードの表示名</t>
+  </si>
+  <si>
+    <t>文書クラスのコード体系を識別するURI。固定値。</t>
+  </si>
+  <si>
+    <t>"http://jpfhir.jp/fhir/Common/CodeSystem/doc-subtypecodes"</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>文書カテゴリコード。患者サマリー（計画書）では文書サブ区分からDISCHARGE:退院時文書、OUTPATIENT:外来文書 のいずれかを使用する。</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>"DISCHARGE"</t>
+    <phoneticPr fontId="27"/>
+  </si>
+  <si>
+    <t>"退院時文書"</t>
     <phoneticPr fontId="27"/>
   </si>
 </sst>
@@ -9624,7 +9656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -10534,9 +10566,6 @@
     <xf numFmtId="0" fontId="39" fillId="48" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10646,6 +10675,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11027,17 +11080,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="324" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="141" t="s">
@@ -13845,17 +13898,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="325" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
     </row>
     <row r="2" spans="1:9" ht="45">
       <c r="A2" s="1" t="s">
@@ -14288,17 +14341,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="327" t="s">
+      <c r="A20" s="326" t="s">
         <v>677</v>
       </c>
-      <c r="B20" s="328"/>
-      <c r="C20" s="328"/>
-      <c r="D20" s="328"/>
-      <c r="E20" s="328"/>
-      <c r="F20" s="328"/>
-      <c r="G20" s="328"/>
-      <c r="H20" s="328"/>
-      <c r="I20" s="329"/>
+      <c r="B20" s="327"/>
+      <c r="C20" s="327"/>
+      <c r="D20" s="327"/>
+      <c r="E20" s="327"/>
+      <c r="F20" s="327"/>
+      <c r="G20" s="327"/>
+      <c r="H20" s="327"/>
+      <c r="I20" s="328"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="92" t="s">
@@ -14386,38 +14439,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="325" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
       <c r="H1" s="294"/>
       <c r="I1" s="294"/>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="320" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="323" t="s">
+      <c r="C2" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="322" t="s">
+      <c r="D2" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="322" t="s">
+      <c r="E2" s="321" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="322" t="s">
+      <c r="F2" s="321" t="s">
         <v>1042</v>
       </c>
-      <c r="G2" s="324" t="s">
+      <c r="G2" s="323" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14426,7 +14479,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="295"/>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="311" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="295"/>
@@ -14445,7 +14498,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="295"/>
-      <c r="C4" s="312" t="s">
+      <c r="C4" s="311" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="295" t="s">
@@ -14460,7 +14513,7 @@
       <c r="B5" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="312" t="s">
+      <c r="C5" s="311" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="295" t="s">
@@ -14477,7 +14530,7 @@
       <c r="B6" s="295" t="s">
         <v>995</v>
       </c>
-      <c r="C6" s="312" t="s">
+      <c r="C6" s="311" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="295" t="s">
@@ -14498,7 +14551,7 @@
         <v>1000</v>
       </c>
       <c r="B7" s="295"/>
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="311" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="295" t="s">
@@ -14515,7 +14568,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="295"/>
-      <c r="C8" s="312" t="s">
+      <c r="C8" s="311" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="295" t="s">
@@ -14536,7 +14589,7 @@
         <v>1029</v>
       </c>
       <c r="B9" s="295"/>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="311" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="295" t="s">
@@ -14557,7 +14610,7 @@
         <v>1030</v>
       </c>
       <c r="B10" s="295"/>
-      <c r="C10" s="312" t="s">
+      <c r="C10" s="311" t="s">
         <v>228</v>
       </c>
       <c r="D10" s="295" t="s">
@@ -14576,7 +14629,7 @@
       <c r="B11" s="91" t="s">
         <v>1039</v>
       </c>
-      <c r="C11" s="312" t="s">
+      <c r="C11" s="311" t="s">
         <v>196</v>
       </c>
       <c r="D11" s="295"/>
@@ -14591,7 +14644,7 @@
       <c r="B12" s="295" t="s">
         <v>676</v>
       </c>
-      <c r="C12" s="312" t="s">
+      <c r="C12" s="311" t="s">
         <v>196</v>
       </c>
       <c r="D12" s="295" t="s">
@@ -14612,7 +14665,7 @@
         <v>1030</v>
       </c>
       <c r="B13" s="295"/>
-      <c r="C13" s="312" t="s">
+      <c r="C13" s="311" t="s">
         <v>228</v>
       </c>
       <c r="D13" s="295" t="s">
@@ -14631,7 +14684,7 @@
       <c r="B14" s="295" t="s">
         <v>1041</v>
       </c>
-      <c r="C14" s="312"/>
+      <c r="C14" s="311"/>
       <c r="D14" s="295"/>
       <c r="E14" s="295"/>
       <c r="F14" s="295"/>
@@ -14642,7 +14695,7 @@
         <v>1030</v>
       </c>
       <c r="B15" s="295"/>
-      <c r="C15" s="312" t="s">
+      <c r="C15" s="311" t="s">
         <v>361</v>
       </c>
       <c r="D15" s="295" t="s">
@@ -14661,7 +14714,7 @@
         <v>1030</v>
       </c>
       <c r="B16" s="295"/>
-      <c r="C16" s="312" t="s">
+      <c r="C16" s="311" t="s">
         <v>361</v>
       </c>
       <c r="D16" s="295" t="s">
@@ -14680,7 +14733,7 @@
         <v>1030</v>
       </c>
       <c r="B17" s="295"/>
-      <c r="C17" s="312" t="s">
+      <c r="C17" s="311" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="295" t="s">
@@ -14699,7 +14752,7 @@
         <v>1030</v>
       </c>
       <c r="B18" s="295"/>
-      <c r="C18" s="312" t="s">
+      <c r="C18" s="311" t="s">
         <v>361</v>
       </c>
       <c r="D18" s="295" t="s">
@@ -14718,7 +14771,7 @@
         <v>1030</v>
       </c>
       <c r="B19" s="300"/>
-      <c r="C19" s="313" t="s">
+      <c r="C19" s="312" t="s">
         <v>188</v>
       </c>
       <c r="D19" s="300" t="s">
@@ -14744,10 +14797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB04D0F8-DC03-CD42-81E9-F6A08855439D}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="137" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14764,75 +14817,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="325" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
       <c r="I1" s="294"/>
     </row>
     <row r="2" spans="1:9" ht="32" thickTop="1" thickBot="1">
-      <c r="A2" s="317" t="s">
+      <c r="A2" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="318" t="s">
+      <c r="B2" s="317" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="318" t="s">
+      <c r="C2" s="317" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="318" t="s">
+      <c r="D2" s="317" t="s">
         <v>1115</v>
       </c>
-      <c r="E2" s="319" t="s">
+      <c r="E2" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="318" t="s">
+      <c r="F2" s="317" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="318" t="s">
+      <c r="G2" s="317" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="318" t="s">
+      <c r="H2" s="317" t="s">
         <v>1059</v>
       </c>
-      <c r="I2" s="320" t="s">
+      <c r="I2" s="319" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28" customHeight="1" thickTop="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310" t="s">
+      <c r="F3" s="309"/>
+      <c r="G3" s="309" t="s">
         <v>1022</v>
       </c>
-      <c r="H3" s="310" t="s">
+      <c r="H3" s="309" t="s">
         <v>555</v>
       </c>
-      <c r="I3" s="311" t="s">
+      <c r="I3" s="310" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28" customHeight="1">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="303" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="295"/>
       <c r="C4" s="295"/>
       <c r="D4" s="295"/>
-      <c r="E4" s="312" t="s">
+      <c r="E4" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="295" t="s">
@@ -14840,16 +14893,16 @@
       </c>
       <c r="G4" s="295"/>
       <c r="H4" s="295"/>
-      <c r="I4" s="305"/>
+      <c r="I4" s="304"/>
     </row>
     <row r="5" spans="1:9" ht="51" customHeight="1">
-      <c r="A5" s="304"/>
+      <c r="A5" s="303"/>
       <c r="B5" s="295" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="295"/>
       <c r="D5" s="295"/>
-      <c r="E5" s="312" t="s">
+      <c r="E5" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="295" t="s">
@@ -14859,16 +14912,16 @@
         <v>1023</v>
       </c>
       <c r="H5" s="295"/>
-      <c r="I5" s="305"/>
+      <c r="I5" s="304"/>
     </row>
     <row r="6" spans="1:9" ht="85" customHeight="1">
-      <c r="A6" s="304"/>
+      <c r="A6" s="303"/>
       <c r="B6" s="295" t="s">
         <v>995</v>
       </c>
       <c r="C6" s="295"/>
       <c r="D6" s="295"/>
-      <c r="E6" s="312" t="s">
+      <c r="E6" s="311" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="295" t="s">
@@ -14880,18 +14933,18 @@
       <c r="H6" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I6" s="305" t="s">
+      <c r="I6" s="304" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32">
-      <c r="A7" s="304" t="s">
+      <c r="A7" s="303" t="s">
         <v>996</v>
       </c>
       <c r="B7" s="295"/>
       <c r="C7" s="295"/>
       <c r="D7" s="295"/>
-      <c r="E7" s="312" t="s">
+      <c r="E7" s="311" t="s">
         <v>228</v>
       </c>
       <c r="F7" s="295" t="s">
@@ -14901,16 +14954,16 @@
         <v>1106</v>
       </c>
       <c r="H7" s="295"/>
-      <c r="I7" s="305"/>
+      <c r="I7" s="304"/>
     </row>
     <row r="8" spans="1:9" ht="80">
-      <c r="A8" s="304"/>
+      <c r="A8" s="303"/>
       <c r="B8" s="295" t="s">
         <v>242</v>
       </c>
       <c r="C8" s="295"/>
       <c r="D8" s="295"/>
-      <c r="E8" s="312" t="s">
+      <c r="E8" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="295" t="s">
@@ -14922,18 +14975,18 @@
       <c r="H8" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I8" s="305" t="s">
+      <c r="I8" s="304" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="A9" s="304"/>
+      <c r="A9" s="303"/>
       <c r="B9" s="295" t="s">
         <v>998</v>
       </c>
       <c r="C9" s="295"/>
       <c r="D9" s="295"/>
-      <c r="E9" s="312" t="s">
+      <c r="E9" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="295" t="s">
@@ -14945,18 +14998,18 @@
       <c r="H9" s="295" t="s">
         <v>1074</v>
       </c>
-      <c r="I9" s="305" t="s">
+      <c r="I9" s="304" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1">
-      <c r="A10" s="304" t="s">
+      <c r="A10" s="303" t="s">
         <v>1000</v>
       </c>
       <c r="B10" s="295"/>
       <c r="C10" s="295"/>
       <c r="D10" s="295"/>
-      <c r="E10" s="312" t="s">
+      <c r="E10" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="295" t="s">
@@ -14966,16 +15019,16 @@
         <v>1025</v>
       </c>
       <c r="H10" s="295"/>
-      <c r="I10" s="305"/>
+      <c r="I10" s="304"/>
     </row>
     <row r="11" spans="1:9" ht="48">
-      <c r="A11" s="304"/>
+      <c r="A11" s="303"/>
       <c r="B11" s="295" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="295"/>
       <c r="D11" s="295"/>
-      <c r="E11" s="312" t="s">
+      <c r="E11" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="295" t="s">
@@ -14987,18 +15040,18 @@
       <c r="H11" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I11" s="305" t="s">
+      <c r="I11" s="304" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="80">
-      <c r="A12" s="304"/>
+      <c r="A12" s="303"/>
       <c r="B12" s="295" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="295"/>
       <c r="D12" s="295"/>
-      <c r="E12" s="312" t="s">
+      <c r="E12" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="295" t="s">
@@ -15010,18 +15063,18 @@
       <c r="H12" s="295" t="s">
         <v>1074</v>
       </c>
-      <c r="I12" s="305" t="s">
+      <c r="I12" s="304" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32">
-      <c r="A13" s="304" t="s">
+      <c r="A13" s="303" t="s">
         <v>227</v>
       </c>
       <c r="B13" s="295"/>
       <c r="C13" s="295"/>
       <c r="D13" s="295"/>
-      <c r="E13" s="312" t="s">
+      <c r="E13" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="295" t="s">
@@ -15033,18 +15086,18 @@
       <c r="H13" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I13" s="305" t="s">
+      <c r="I13" s="304" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
-      <c r="A14" s="304" t="s">
+      <c r="A14" s="303" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="295"/>
       <c r="C14" s="295"/>
       <c r="D14" s="295"/>
-      <c r="E14" s="312" t="s">
+      <c r="E14" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="295" t="s">
@@ -15054,16 +15107,16 @@
         <v>1001</v>
       </c>
       <c r="H14" s="295"/>
-      <c r="I14" s="305"/>
+      <c r="I14" s="304"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
-      <c r="A15" s="304"/>
+      <c r="A15" s="303"/>
       <c r="B15" s="295" t="s">
         <v>1002</v>
       </c>
       <c r="C15" s="295"/>
       <c r="D15" s="295"/>
-      <c r="E15" s="312" t="s">
+      <c r="E15" s="311" t="s">
         <v>228</v>
       </c>
       <c r="F15" s="295" t="s">
@@ -15071,16 +15124,16 @@
       </c>
       <c r="G15" s="295"/>
       <c r="H15" s="295"/>
-      <c r="I15" s="305"/>
+      <c r="I15" s="304"/>
     </row>
     <row r="16" spans="1:9" ht="48">
-      <c r="A16" s="304"/>
+      <c r="A16" s="303"/>
       <c r="B16" s="295"/>
       <c r="C16" s="295" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="295"/>
-      <c r="E16" s="312" t="s">
+      <c r="E16" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="295" t="s">
@@ -15092,18 +15145,18 @@
       <c r="H16" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I16" s="305" t="s">
+      <c r="I16" s="304" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="32">
-      <c r="A17" s="304"/>
+      <c r="A17" s="303"/>
       <c r="B17" s="295"/>
       <c r="C17" s="295" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="295"/>
-      <c r="E17" s="312" t="s">
+      <c r="E17" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="295" t="s">
@@ -15115,12 +15168,12 @@
       <c r="H17" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I17" s="305" t="s">
+      <c r="I17" s="304" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="304"/>
+      <c r="A18" s="303"/>
       <c r="B18" s="295"/>
       <c r="C18" s="295" t="s">
         <v>121</v>
@@ -15138,469 +15191,555 @@
       <c r="H18" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I18" s="305" t="s">
+      <c r="I18" s="304" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="38" customHeight="1">
-      <c r="A19" s="304" t="s">
+    <row r="19" spans="1:9" ht="35" customHeight="1">
+      <c r="A19" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="302" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F19" s="295" t="s">
+      <c r="B19" s="344"/>
+      <c r="C19" s="344"/>
+      <c r="D19" s="344"/>
+      <c r="E19" s="347" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="303" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H19" s="295"/>
-      <c r="I19" s="305"/>
-    </row>
-    <row r="20" spans="1:9" ht="32">
-      <c r="A20" s="304" t="s">
+      <c r="G19" s="344" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H19" s="344"/>
+      <c r="I19" s="345"/>
+    </row>
+    <row r="20" spans="1:9" ht="50" customHeight="1">
+      <c r="A20" s="346"/>
+      <c r="B20" s="344" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="344"/>
+      <c r="D20" s="344"/>
+      <c r="E20" s="347" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="344" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="344"/>
+      <c r="H20" s="344"/>
+      <c r="I20" s="345"/>
+    </row>
+    <row r="21" spans="1:9" ht="51" customHeight="1">
+      <c r="A21" s="346"/>
+      <c r="B21" s="344"/>
+      <c r="C21" s="344" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="344"/>
+      <c r="E21" s="347" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="344" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="344" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H21" s="344" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I21" s="345" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="50" customHeight="1">
+      <c r="A22" s="346"/>
+      <c r="B22" s="344"/>
+      <c r="C22" s="344" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="344"/>
+      <c r="E22" s="347" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="344" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="344" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H22" s="344" t="s">
+        <v>516</v>
+      </c>
+      <c r="I22" s="345" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="77" customHeight="1">
+      <c r="A23" s="346"/>
+      <c r="B23" s="344"/>
+      <c r="C23" s="344" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="344"/>
+      <c r="E23" s="344" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="344" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="344" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H23" s="344" t="s">
+        <v>516</v>
+      </c>
+      <c r="I23" s="345" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="82" customHeight="1">
+      <c r="A24" s="340" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="295"/>
-      <c r="C20" s="295"/>
-      <c r="D20" s="295"/>
-      <c r="E20" s="312" t="s">
+      <c r="B24" s="341"/>
+      <c r="C24" s="341"/>
+      <c r="D24" s="341"/>
+      <c r="E24" s="342" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="295" t="s">
+      <c r="F24" s="341" t="s">
         <v>1069</v>
       </c>
-      <c r="G20" s="295" t="s">
+      <c r="G24" s="341" t="s">
         <v>1068</v>
       </c>
-      <c r="H20" s="295"/>
-      <c r="I20" s="305"/>
-    </row>
-    <row r="21" spans="1:9" ht="50" customHeight="1">
-      <c r="A21" s="304"/>
-      <c r="B21" s="295" t="s">
+      <c r="H24" s="341"/>
+      <c r="I24" s="343"/>
+    </row>
+    <row r="25" spans="1:9" ht="48" customHeight="1">
+      <c r="A25" s="303"/>
+      <c r="B25" s="295" t="s">
         <v>1003</v>
       </c>
-      <c r="C21" s="295"/>
-      <c r="D21" s="295"/>
-      <c r="E21" s="312" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="295" t="s">
-        <v>358</v>
-      </c>
-      <c r="G21" s="295" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H21" s="295" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I21" s="305" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="51" customHeight="1">
-      <c r="A22" s="304" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="295"/>
-      <c r="C22" s="295"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="312" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="295" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G22" s="295" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H22" s="295"/>
-      <c r="I22" s="305"/>
-    </row>
-    <row r="23" spans="1:9" ht="50" customHeight="1">
-      <c r="A23" s="304"/>
-      <c r="B23" s="295" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="312" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="295" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="295" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H23" s="295" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I23" s="305" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="77" customHeight="1">
-      <c r="A24" s="304" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B24" s="295"/>
-      <c r="C24" s="295"/>
-      <c r="D24" s="295"/>
-      <c r="E24" s="312" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="295" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="295" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H24" s="295" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I24" s="305" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="82" customHeight="1">
-      <c r="A25" s="304" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="295"/>
       <c r="C25" s="295"/>
       <c r="D25" s="295"/>
-      <c r="E25" s="312" t="s">
-        <v>1005</v>
+      <c r="E25" s="311" t="s">
+        <v>10</v>
       </c>
       <c r="F25" s="295" t="s">
-        <v>1011</v>
+        <v>358</v>
       </c>
       <c r="G25" s="295" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H25" s="295"/>
-      <c r="I25" s="305"/>
+        <v>1070</v>
+      </c>
+      <c r="H25" s="295" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I25" s="304" t="s">
+        <v>1017</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="48" customHeight="1">
-      <c r="A26" s="304"/>
-      <c r="B26" s="295" t="s">
-        <v>1111</v>
-      </c>
+      <c r="A26" s="303" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="295"/>
       <c r="C26" s="295"/>
       <c r="D26" s="295"/>
-      <c r="E26" s="312" t="s">
-        <v>10</v>
+      <c r="E26" s="311" t="s">
+        <v>196</v>
       </c>
       <c r="F26" s="295" t="s">
-        <v>39</v>
+        <v>1072</v>
       </c>
       <c r="G26" s="295" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H26" s="295" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I26" s="305" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1">
-      <c r="A27" s="304"/>
+        <v>1071</v>
+      </c>
+      <c r="H26" s="295"/>
+      <c r="I26" s="304"/>
+    </row>
+    <row r="27" spans="1:9" ht="38" customHeight="1">
+      <c r="A27" s="303"/>
       <c r="B27" s="295" t="s">
         <v>1003</v>
       </c>
       <c r="C27" s="295"/>
       <c r="D27" s="295"/>
-      <c r="E27" s="312" t="s">
+      <c r="E27" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="295" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="295" t="s">
-        <v>1112</v>
+        <v>1027</v>
       </c>
       <c r="H27" s="295" t="s">
         <v>1074</v>
       </c>
-      <c r="I27" s="305" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="38" customHeight="1">
-      <c r="A28" s="304" t="s">
-        <v>1006</v>
+      <c r="I27" s="304" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="44" customHeight="1">
+      <c r="A28" s="303" t="s">
+        <v>1004</v>
       </c>
       <c r="B28" s="295"/>
       <c r="C28" s="295"/>
       <c r="D28" s="295"/>
-      <c r="E28" s="312" t="s">
+      <c r="E28" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="295" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="G28" s="295" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="H28" s="295" t="s">
-        <v>555</v>
-      </c>
-      <c r="I28" s="305" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="44" customHeight="1">
-      <c r="A29" s="304" t="s">
-        <v>1007</v>
+        <v>1074</v>
+      </c>
+      <c r="I28" s="304" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="64">
+      <c r="A29" s="303" t="s">
+        <v>218</v>
       </c>
       <c r="B29" s="295"/>
       <c r="C29" s="295"/>
       <c r="D29" s="295"/>
-      <c r="E29" s="302" t="s">
-        <v>1067</v>
+      <c r="E29" s="311" t="s">
+        <v>1005</v>
       </c>
       <c r="F29" s="295" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="G29" s="295" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="H29" s="295"/>
-      <c r="I29" s="305"/>
-    </row>
-    <row r="30" spans="1:9" ht="48">
-      <c r="A30" s="304"/>
+      <c r="I29" s="304"/>
+    </row>
+    <row r="30" spans="1:9" ht="42" customHeight="1">
+      <c r="A30" s="303"/>
       <c r="B30" s="295" t="s">
-        <v>1003</v>
+        <v>1111</v>
       </c>
       <c r="C30" s="295"/>
       <c r="D30" s="295"/>
-      <c r="E30" s="295" t="s">
+      <c r="E30" s="311" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="295" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="295" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H30" s="295"/>
-      <c r="I30" s="305" t="s">
-        <v>1021</v>
+        <v>1073</v>
+      </c>
+      <c r="H30" s="295" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I30" s="304" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="42" customHeight="1">
-      <c r="A31" s="304" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B31" s="295"/>
+      <c r="A31" s="303"/>
+      <c r="B31" s="295" t="s">
+        <v>1003</v>
+      </c>
       <c r="C31" s="295"/>
       <c r="D31" s="295"/>
-      <c r="E31" s="302" t="s">
-        <v>1067</v>
+      <c r="E31" s="311" t="s">
+        <v>10</v>
       </c>
       <c r="F31" s="295" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="G31" s="295" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H31" s="295"/>
-      <c r="I31" s="305"/>
-    </row>
-    <row r="32" spans="1:9" ht="42" customHeight="1">
-      <c r="A32" s="304" t="s">
-        <v>1010</v>
+        <v>1112</v>
+      </c>
+      <c r="H31" s="295" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I31" s="304" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="24" customHeight="1">
+      <c r="A32" s="303" t="s">
+        <v>1006</v>
       </c>
       <c r="B32" s="295"/>
       <c r="C32" s="295"/>
       <c r="D32" s="295"/>
-      <c r="E32" s="312" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F32" s="295"/>
+      <c r="E32" s="311" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="295" t="s">
+        <v>39</v>
+      </c>
       <c r="G32" s="295" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H32" s="295"/>
-      <c r="I32" s="305"/>
+        <v>1113</v>
+      </c>
+      <c r="H32" s="295" t="s">
+        <v>555</v>
+      </c>
+      <c r="I32" s="304" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="24" customHeight="1">
-      <c r="A33" s="304" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B33" s="295" t="s">
-        <v>1077</v>
-      </c>
+      <c r="A33" s="303" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B33" s="295"/>
       <c r="C33" s="295"/>
       <c r="D33" s="295"/>
-      <c r="E33" s="312" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="295"/>
+      <c r="E33" s="302" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F33" s="295" t="s">
+        <v>1008</v>
+      </c>
       <c r="G33" s="295" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H33" s="295" t="s">
-        <v>555</v>
-      </c>
-      <c r="I33" s="305" t="s">
-        <v>1078</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="H33" s="295"/>
+      <c r="I33" s="304"/>
     </row>
     <row r="34" spans="1:9" ht="24" customHeight="1">
-      <c r="A34" s="304" t="s">
-        <v>1010</v>
-      </c>
+      <c r="A34" s="303"/>
       <c r="B34" s="295" t="s">
-        <v>339</v>
+        <v>1003</v>
       </c>
       <c r="C34" s="295"/>
       <c r="D34" s="295"/>
-      <c r="E34" s="312" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="295"/>
+      <c r="E34" s="295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="295" t="s">
+        <v>39</v>
+      </c>
       <c r="G34" s="295" t="s">
-        <v>1090</v>
+        <v>1028</v>
       </c>
       <c r="H34" s="295"/>
-      <c r="I34" s="305"/>
-    </row>
-    <row r="35" spans="1:9" ht="24" customHeight="1">
-      <c r="A35" s="304" t="s">
-        <v>1010</v>
+      <c r="I34" s="304" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="48" customHeight="1">
+      <c r="A35" s="303" t="s">
+        <v>1009</v>
       </c>
       <c r="B35" s="295"/>
-      <c r="C35" s="295" t="s">
-        <v>394</v>
-      </c>
+      <c r="C35" s="295"/>
       <c r="D35" s="295"/>
-      <c r="E35" s="312" t="s">
-        <v>196</v>
-      </c>
-      <c r="F35" s="295"/>
-      <c r="G35" s="295"/>
+      <c r="E35" s="302" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F35" s="295" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="295" t="s">
+        <v>1076</v>
+      </c>
       <c r="H35" s="295"/>
-      <c r="I35" s="305"/>
-    </row>
-    <row r="36" spans="1:9" ht="48" customHeight="1">
-      <c r="A36" s="304" t="s">
+      <c r="I35" s="304"/>
+    </row>
+    <row r="36" spans="1:9" ht="31" customHeight="1">
+      <c r="A36" s="303" t="s">
         <v>1010</v>
       </c>
       <c r="B36" s="295"/>
       <c r="C36" s="295"/>
-      <c r="D36" s="295" t="s">
-        <v>407</v>
-      </c>
-      <c r="E36" s="312" t="s">
-        <v>196</v>
+      <c r="D36" s="295"/>
+      <c r="E36" s="311" t="s">
+        <v>1093</v>
       </c>
       <c r="F36" s="295"/>
-      <c r="G36" s="295"/>
-      <c r="H36" s="295" t="s">
-        <v>555</v>
-      </c>
-      <c r="I36" s="305" t="s">
-        <v>1079</v>
-      </c>
+      <c r="G36" s="295" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H36" s="295"/>
+      <c r="I36" s="304"/>
     </row>
     <row r="37" spans="1:9" ht="31" customHeight="1">
-      <c r="A37" s="304" t="s">
+      <c r="A37" s="303" t="s">
         <v>1010</v>
       </c>
-      <c r="B37" s="295"/>
+      <c r="B37" s="295" t="s">
+        <v>1077</v>
+      </c>
       <c r="C37" s="295"/>
-      <c r="D37" s="295" t="s">
-        <v>339</v>
-      </c>
-      <c r="E37" s="312" t="s">
+      <c r="D37" s="295"/>
+      <c r="E37" s="311" t="s">
         <v>196</v>
       </c>
       <c r="F37" s="295"/>
       <c r="G37" s="295" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H37" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I37" s="305">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="31" customHeight="1">
-      <c r="A38" s="304" t="s">
+      <c r="I37" s="304" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="46" customHeight="1">
+      <c r="A38" s="303" t="s">
         <v>1010</v>
       </c>
-      <c r="B38" s="295"/>
+      <c r="B38" s="295" t="s">
+        <v>339</v>
+      </c>
       <c r="C38" s="295"/>
-      <c r="D38" s="295" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="295" t="s">
-        <v>189</v>
+      <c r="D38" s="295"/>
+      <c r="E38" s="311" t="s">
+        <v>196</v>
       </c>
       <c r="F38" s="295"/>
       <c r="G38" s="295" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H38" s="295"/>
+      <c r="I38" s="304"/>
+    </row>
+    <row r="39" spans="1:9" ht="40" customHeight="1">
+      <c r="A39" s="303" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B39" s="295"/>
+      <c r="C39" s="295" t="s">
+        <v>394</v>
+      </c>
+      <c r="D39" s="295"/>
+      <c r="E39" s="311" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="295"/>
+      <c r="I39" s="304"/>
+    </row>
+    <row r="40" spans="1:9" ht="24" customHeight="1">
+      <c r="A40" s="303" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B40" s="295"/>
+      <c r="C40" s="295"/>
+      <c r="D40" s="295" t="s">
+        <v>407</v>
+      </c>
+      <c r="E40" s="311" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="295" t="s">
+        <v>555</v>
+      </c>
+      <c r="I40" s="304" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16">
+      <c r="A41" s="303" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B41" s="295"/>
+      <c r="C41" s="295"/>
+      <c r="D41" s="295" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="311" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="295"/>
+      <c r="G41" s="295" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H41" s="295" t="s">
+        <v>555</v>
+      </c>
+      <c r="I41" s="304">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="32">
+      <c r="A42" s="303" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B42" s="295"/>
+      <c r="C42" s="295"/>
+      <c r="D42" s="295" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="295" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="295"/>
+      <c r="G42" s="295" t="s">
         <v>1092</v>
       </c>
-      <c r="H38" s="295" t="s">
+      <c r="H42" s="295" t="s">
         <v>555</v>
       </c>
-      <c r="I38" s="305" t="s">
+      <c r="I42" s="304" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="46" customHeight="1">
-      <c r="A39" s="304" t="s">
+    <row r="43" spans="1:9" ht="32">
+      <c r="A43" s="303" t="s">
         <v>1010</v>
       </c>
-      <c r="B39" s="295" t="s">
+      <c r="B43" s="295" t="s">
         <v>1082</v>
       </c>
-      <c r="C39" s="295"/>
-      <c r="D39" s="295"/>
-      <c r="E39" s="312" t="s">
+      <c r="C43" s="295"/>
+      <c r="D43" s="295"/>
+      <c r="E43" s="311" t="s">
         <v>1085</v>
       </c>
-      <c r="F39" s="295" t="s">
+      <c r="F43" s="295" t="s">
         <v>1081</v>
       </c>
-      <c r="G39" s="295" t="s">
+      <c r="G43" s="295" t="s">
         <v>1086</v>
       </c>
-      <c r="H39" s="295"/>
-      <c r="I39" s="305"/>
-    </row>
-    <row r="40" spans="1:9" ht="40" customHeight="1" thickBot="1">
-      <c r="A40" s="306" t="s">
+      <c r="H43" s="295"/>
+      <c r="I43" s="304"/>
+    </row>
+    <row r="44" spans="1:9" ht="33" thickBot="1">
+      <c r="A44" s="305" t="s">
         <v>1010</v>
       </c>
-      <c r="B40" s="307" t="s">
+      <c r="B44" s="306" t="s">
         <v>1082</v>
       </c>
-      <c r="C40" s="307"/>
-      <c r="D40" s="307"/>
-      <c r="E40" s="314" t="s">
+      <c r="C44" s="306"/>
+      <c r="D44" s="306"/>
+      <c r="E44" s="313" t="s">
         <v>1084</v>
       </c>
-      <c r="F40" s="307" t="s">
+      <c r="F44" s="306" t="s">
         <v>1083</v>
       </c>
-      <c r="G40" s="307" t="s">
+      <c r="G44" s="306" t="s">
         <v>1087</v>
       </c>
-      <c r="H40" s="307"/>
-      <c r="I40" s="308"/>
-    </row>
-    <row r="41" spans="1:9" ht="24" customHeight="1" thickTop="1"/>
+      <c r="H44" s="306"/>
+      <c r="I44" s="307"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -15633,18 +15772,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="324" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
     </row>
     <row r="2" spans="1:10" ht="75">
       <c r="A2" s="141" t="s">
@@ -18534,22 +18673,22 @@
       <c r="A117" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="B117" s="331" t="s">
+      <c r="B117" s="330" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="331"/>
+      <c r="C117" s="330"/>
       <c r="D117" s="20"/>
-      <c r="E117" s="331"/>
-      <c r="F117" s="331" t="s">
+      <c r="E117" s="330"/>
+      <c r="F117" s="330" t="s">
         <v>41</v>
       </c>
-      <c r="G117" s="331" t="s">
+      <c r="G117" s="330" t="s">
         <v>42</v>
       </c>
-      <c r="H117" s="331" t="s">
+      <c r="H117" s="330" t="s">
         <v>734</v>
       </c>
-      <c r="I117" s="332" t="s">
+      <c r="I117" s="331" t="s">
         <v>219</v>
       </c>
       <c r="J117" s="175" t="s">
@@ -18560,14 +18699,14 @@
       <c r="A118" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="B118" s="331"/>
-      <c r="C118" s="331"/>
+      <c r="B118" s="330"/>
+      <c r="C118" s="330"/>
       <c r="D118" s="20"/>
-      <c r="E118" s="331"/>
-      <c r="F118" s="331"/>
-      <c r="G118" s="331"/>
-      <c r="H118" s="331"/>
-      <c r="I118" s="333"/>
+      <c r="E118" s="330"/>
+      <c r="F118" s="330"/>
+      <c r="G118" s="330"/>
+      <c r="H118" s="330"/>
+      <c r="I118" s="332"/>
       <c r="J118" s="175" t="s">
         <v>214</v>
       </c>
@@ -18576,14 +18715,14 @@
       <c r="A119" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="B119" s="331"/>
-      <c r="C119" s="331"/>
+      <c r="B119" s="330"/>
+      <c r="C119" s="330"/>
       <c r="D119" s="20"/>
-      <c r="E119" s="331"/>
-      <c r="F119" s="331"/>
-      <c r="G119" s="331"/>
-      <c r="H119" s="331"/>
-      <c r="I119" s="334"/>
+      <c r="E119" s="330"/>
+      <c r="F119" s="330"/>
+      <c r="G119" s="330"/>
+      <c r="H119" s="330"/>
+      <c r="I119" s="333"/>
       <c r="J119" s="175" t="s">
         <v>735</v>
       </c>
@@ -18837,17 +18976,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="49" customHeight="1" thickBot="1">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="324" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
+      <c r="B1" s="324"/>
+      <c r="C1" s="324"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="98" t="s">
@@ -19084,7 +19223,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="315" t="s">
+      <c r="E12" s="314" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -19736,11 +19875,11 @@
         <v>188</v>
       </c>
       <c r="F40" s="269"/>
-      <c r="G40" s="335" t="s">
+      <c r="G40" s="334" t="s">
         <v>991</v>
       </c>
-      <c r="H40" s="332"/>
-      <c r="I40" s="336"/>
+      <c r="H40" s="331"/>
+      <c r="I40" s="335"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="131" t="s">
@@ -19757,9 +19896,9 @@
       <c r="F41" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G41" s="333"/>
-      <c r="H41" s="333"/>
-      <c r="I41" s="337"/>
+      <c r="G41" s="332"/>
+      <c r="H41" s="332"/>
+      <c r="I41" s="336"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="131" t="s">
@@ -19778,9 +19917,9 @@
       <c r="F42" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="G42" s="333"/>
-      <c r="H42" s="333"/>
-      <c r="I42" s="337"/>
+      <c r="G42" s="332"/>
+      <c r="H42" s="332"/>
+      <c r="I42" s="336"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="131" t="s">
@@ -19799,9 +19938,9 @@
       <c r="F43" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G43" s="333"/>
-      <c r="H43" s="333"/>
-      <c r="I43" s="337"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
+      <c r="I43" s="336"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="131" t="s">
@@ -19820,9 +19959,9 @@
       <c r="F44" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G44" s="333"/>
-      <c r="H44" s="333"/>
-      <c r="I44" s="337"/>
+      <c r="G44" s="332"/>
+      <c r="H44" s="332"/>
+      <c r="I44" s="336"/>
     </row>
     <row r="45" spans="1:9" ht="26" customHeight="1">
       <c r="A45" s="131" t="s">
@@ -19841,9 +19980,9 @@
       <c r="F45" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G45" s="333"/>
-      <c r="H45" s="333"/>
-      <c r="I45" s="337"/>
+      <c r="G45" s="332"/>
+      <c r="H45" s="332"/>
+      <c r="I45" s="336"/>
     </row>
     <row r="46" spans="1:9" ht="28" customHeight="1">
       <c r="A46" s="131" t="s">
@@ -19860,9 +19999,9 @@
       <c r="F46" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="338"/>
+      <c r="G46" s="333"/>
+      <c r="H46" s="333"/>
+      <c r="I46" s="337"/>
     </row>
     <row r="47" spans="1:9" ht="90">
       <c r="A47" s="103" t="s">
@@ -21104,18 +21243,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="21" thickBot="1">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="338" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="234" t="s">
@@ -21367,7 +21506,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="315" t="s">
+      <c r="F12" s="314" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -21387,7 +21526,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="316" t="s">
+      <c r="F13" s="315" t="s">
         <v>241</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -22345,7 +22484,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="315" t="s">
+      <c r="F52" s="314" t="s">
         <v>41</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -23284,17 +23423,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="329" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
+      <c r="F1" s="329"/>
+      <c r="G1" s="329"/>
+      <c r="H1" s="329"/>
+      <c r="I1" s="329"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="68" t="s">
@@ -25239,17 +25378,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40" customHeight="1" thickBot="1">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="339" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
